--- a/Code/Results/Cases/Case_2_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9367524061127881</v>
+        <v>0.3020198183113507</v>
       </c>
       <c r="C2">
-        <v>0.1388661643492242</v>
+        <v>0.07458860217634822</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.39512647050968</v>
+        <v>0.4210905462599328</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1843523114778023</v>
+        <v>0.2923424507497643</v>
       </c>
       <c r="H2">
-        <v>0.1853466840580325</v>
+        <v>0.4720819551906956</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9781849477873266</v>
+        <v>0.3005669203260766</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5962249340400056</v>
+        <v>1.075236111150243</v>
       </c>
       <c r="O2">
-        <v>0.7287886663241636</v>
+        <v>1.454887358339022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8154882095254834</v>
+        <v>0.2648994802753464</v>
       </c>
       <c r="C3">
-        <v>0.1267684449177153</v>
+        <v>0.07064570305399798</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.200536658412304</v>
+        <v>0.3674713771598022</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1777604340367134</v>
+        <v>0.2941176245743691</v>
       </c>
       <c r="H3">
-        <v>0.1878807694790368</v>
+        <v>0.4763030475964385</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8559799239429253</v>
+        <v>0.2622639032088614</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6202173339515689</v>
+        <v>1.085737194912184</v>
       </c>
       <c r="O3">
-        <v>0.7197848630751764</v>
+        <v>1.467262182153661</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7411079222806052</v>
+        <v>0.2420733955499941</v>
       </c>
       <c r="C4">
-        <v>0.1193387340713201</v>
+        <v>0.06820961911171253</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.08287447677769</v>
+        <v>0.334621184651084</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.174371018599949</v>
+        <v>0.2954647070561549</v>
       </c>
       <c r="H4">
-        <v>0.189850116359068</v>
+        <v>0.4791227071872299</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7809517007227242</v>
+        <v>0.2386568866140664</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6357844790132319</v>
+        <v>1.092593874484752</v>
       </c>
       <c r="O4">
-        <v>0.71650950308495</v>
+        <v>1.475874947344238</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7108060724979453</v>
+        <v>0.2327635102925001</v>
       </c>
       <c r="C5">
-        <v>0.1163096585678147</v>
+        <v>0.06721314575372617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.035315021192432</v>
+        <v>0.3212512965448724</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1731450405737576</v>
+        <v>0.2960781256388927</v>
       </c>
       <c r="H5">
-        <v>0.1907522450412245</v>
+        <v>0.4803290330666599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7503684209703323</v>
+        <v>0.2290149875692862</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6423328139107625</v>
+        <v>1.095490912002852</v>
       </c>
       <c r="O5">
-        <v>0.7157104870140074</v>
+        <v>1.479639420149155</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7057747063487625</v>
+        <v>0.2312171379869028</v>
       </c>
       <c r="C6">
-        <v>0.1158065704610181</v>
+        <v>0.06704745727346051</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.027439400508271</v>
+        <v>0.3190322149028759</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.172950555149967</v>
+        <v>0.2961838718936534</v>
       </c>
       <c r="H6">
-        <v>0.1909079358652335</v>
+        <v>0.4805328024517053</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7452892816846486</v>
+        <v>0.2274126522766693</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6434323601609577</v>
+        <v>1.095978178266808</v>
       </c>
       <c r="O6">
-        <v>0.7156092976186557</v>
+        <v>1.480279878990203</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7406992390067728</v>
+        <v>0.2419478712071452</v>
       </c>
       <c r="C7">
-        <v>0.1192978898504435</v>
+        <v>0.06819619543107081</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.082231585211844</v>
+        <v>0.3344408072489102</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1743538692005373</v>
+        <v>0.2954727190346063</v>
       </c>
       <c r="H7">
-        <v>0.1898618850679483</v>
+        <v>0.4791387441672654</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7805392920211318</v>
+        <v>0.2385269404116173</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6358719708662974</v>
+        <v>1.092632528308428</v>
       </c>
       <c r="O7">
-        <v>0.7164965976776472</v>
+        <v>1.475924685628939</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8949180848819367</v>
+        <v>0.2892280753377179</v>
       </c>
       <c r="C8">
-        <v>0.134694590409481</v>
+        <v>0.07323226195701693</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.32761227335034</v>
+        <v>0.4025868613115904</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1819365253262504</v>
+        <v>0.2929010550697839</v>
       </c>
       <c r="H8">
-        <v>0.1861319410792817</v>
+        <v>0.4734900807079399</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9360409736286215</v>
+        <v>0.2873787509428212</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6043206363509839</v>
+        <v>1.078772030225267</v>
       </c>
       <c r="O8">
-        <v>0.7251974624890209</v>
+        <v>1.458943367936385</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.198470458132334</v>
+        <v>0.38165714854415</v>
       </c>
       <c r="C9">
-        <v>0.1649248417601257</v>
+        <v>0.08298599006671736</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.826581327187156</v>
+        <v>0.5368597020203794</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2025186064998934</v>
+        <v>0.2899066807842132</v>
       </c>
       <c r="H9">
-        <v>0.1823063170779875</v>
+        <v>0.4642219526549525</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.241540259619285</v>
+        <v>0.382455577142224</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5493424785970191</v>
+        <v>1.054834485054933</v>
       </c>
       <c r="O9">
-        <v>0.7616160218917827</v>
+        <v>1.43371295806125</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.422985294139266</v>
+        <v>0.4493732371662134</v>
       </c>
       <c r="C10">
-        <v>0.1872376911861835</v>
+        <v>0.09007573695409121</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.209193603558234</v>
+        <v>0.6359993083288771</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2218551538773781</v>
+        <v>0.2889678287747941</v>
       </c>
       <c r="H10">
-        <v>0.181932701775807</v>
+        <v>0.4585164034533804</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.467125796918054</v>
+        <v>0.4518528070528873</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5135381074750214</v>
+        <v>1.039221373861032</v>
       </c>
       <c r="O10">
-        <v>0.8023766265105223</v>
+        <v>1.420124107684956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.525645062509454</v>
+        <v>0.4801343672444318</v>
       </c>
       <c r="C11">
-        <v>0.1974309187991992</v>
+        <v>0.09328410422605771</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.388037770328324</v>
+        <v>0.6812288779715914</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.231744185951662</v>
+        <v>0.2888172143815098</v>
       </c>
       <c r="H11">
-        <v>0.1823668620350105</v>
+        <v>0.4561607065184035</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.570192642602564</v>
+        <v>0.483321486305158</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4983378526633402</v>
+        <v>1.032546547403513</v>
       </c>
       <c r="O11">
-        <v>0.824493279324102</v>
+        <v>1.415022781413981</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.564613048038836</v>
+        <v>0.4917761771157245</v>
       </c>
       <c r="C12">
-        <v>0.2012988738287618</v>
+        <v>0.09449656842126331</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.45657326228789</v>
+        <v>0.6983765020532786</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.235662191013958</v>
+        <v>0.2888001466343297</v>
       </c>
       <c r="H12">
-        <v>0.182624981581661</v>
+        <v>0.4553031694837983</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.609303197522649</v>
+        <v>0.4952230083470681</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4927466166577972</v>
+        <v>1.030080432311443</v>
       </c>
       <c r="O12">
-        <v>0.8334308852066528</v>
+        <v>1.413246886941948</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.556216169890121</v>
+        <v>0.4892692144438229</v>
       </c>
       <c r="C13">
-        <v>0.2004654534642754</v>
+        <v>0.09423555358375779</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.441774750879176</v>
+        <v>0.69468253493622</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2348104022391766</v>
+        <v>0.2888020416061252</v>
       </c>
       <c r="H13">
-        <v>0.1825651079256332</v>
+        <v>0.4554863198591832</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.600876130093098</v>
+        <v>0.4926604775686485</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4939433207351627</v>
+        <v>1.030608819193787</v>
       </c>
       <c r="O13">
-        <v>0.8314801774797758</v>
+        <v>1.413622417069348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52884901493573</v>
+        <v>0.4810922845805976</v>
       </c>
       <c r="C14">
-        <v>0.1977489662768619</v>
+        <v>0.09338390432721155</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.393659222220506</v>
+        <v>0.6826392110428685</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2320629533703311</v>
+        <v>0.2888150080129037</v>
       </c>
       <c r="H14">
-        <v>0.1823861783125622</v>
+        <v>0.4560894645203817</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.573408556612804</v>
+        <v>0.4843009350533123</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4978745057270615</v>
+        <v>1.032342426129922</v>
       </c>
       <c r="O14">
-        <v>0.8252170154781169</v>
+        <v>1.414873550716933</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.512098485697692</v>
+        <v>0.4760827821905309</v>
       </c>
       <c r="C15">
-        <v>0.1960861389058977</v>
+        <v>0.0928619204949257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.364296558416427</v>
+        <v>0.6752649957528263</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2304031244231695</v>
+        <v>0.2888281613844299</v>
       </c>
       <c r="H15">
-        <v>0.1822889957077365</v>
+        <v>0.456463403815782</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.556595008692256</v>
+        <v>0.4791785066468606</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5003041880008752</v>
+        <v>1.033412319200607</v>
       </c>
       <c r="O15">
-        <v>0.8214554129572633</v>
+        <v>1.415660220144275</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.416288273267554</v>
+        <v>0.4473620081505487</v>
       </c>
       <c r="C16">
-        <v>0.1865725557642435</v>
+        <v>0.08986571954069689</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.197612261257362</v>
+        <v>0.6330461949412012</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2212322174751975</v>
+        <v>0.2889832530961129</v>
       </c>
       <c r="H16">
-        <v>0.1819170567454194</v>
+        <v>0.4586751817326018</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.460400554581582</v>
+        <v>0.4497941872724311</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5145540655172454</v>
+        <v>1.039666194965633</v>
       </c>
       <c r="O16">
-        <v>0.8010072330163069</v>
+        <v>1.4204792743582</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357658503388222</v>
+        <v>0.4297312781010305</v>
       </c>
       <c r="C17">
-        <v>0.1807485235151489</v>
+        <v>0.08802330321405805</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.096666741873705</v>
+        <v>0.6071807416197856</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2158970827480786</v>
+        <v>0.2891493578941819</v>
       </c>
       <c r="H17">
-        <v>0.181848305520603</v>
+        <v>0.4600934743442266</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.401514499198072</v>
+        <v>0.4317417444610214</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5235801972949048</v>
+        <v>1.043612277485799</v>
       </c>
       <c r="O17">
-        <v>0.7894116970070257</v>
+        <v>1.423712670789712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.323984681105827</v>
+        <v>0.4195865091536461</v>
       </c>
       <c r="C18">
-        <v>0.1774026211835036</v>
+        <v>0.08696201689068062</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.039048515627243</v>
+        <v>0.5923158123999315</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2129302673866178</v>
+        <v>0.2892709074676603</v>
       </c>
       <c r="H18">
-        <v>0.1818651826289113</v>
+        <v>0.4609318065037868</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.367685740118048</v>
+        <v>0.4213490322251516</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5288735967134883</v>
+        <v>1.045922212571988</v>
       </c>
       <c r="O18">
-        <v>0.7830755620721987</v>
+        <v>1.425674087607234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312591129343474</v>
+        <v>0.4161509874703881</v>
       </c>
       <c r="C19">
-        <v>0.1762703785388169</v>
+        <v>0.08660241452423634</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.019612556819993</v>
+        <v>0.5872848546218989</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2119427720684044</v>
+        <v>0.2893165229945325</v>
       </c>
       <c r="H19">
-        <v>0.1818803879616055</v>
+        <v>0.4612195263992405</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.356238440004262</v>
+        <v>0.4178286361200776</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5306830895094947</v>
+        <v>1.04671123039946</v>
       </c>
       <c r="O19">
-        <v>0.7809860892443794</v>
+        <v>1.426355632779902</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.363894606295673</v>
+        <v>0.4316085213986014</v>
       </c>
       <c r="C20">
-        <v>0.181368082750538</v>
+        <v>0.08821959524419754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.107365879097912</v>
+        <v>0.6099328909520949</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2164543672844417</v>
+        <v>0.289128982244975</v>
       </c>
       <c r="H20">
-        <v>0.1818497370912269</v>
+        <v>0.459940158754506</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.407778664070918</v>
+        <v>0.4336644371180967</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5226087544472264</v>
+        <v>1.043188044256375</v>
       </c>
       <c r="O20">
-        <v>0.7906112266966545</v>
+        <v>1.423357945779102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.536884743914499</v>
+        <v>0.4834942349392577</v>
       </c>
       <c r="C21">
-        <v>0.1985466317397311</v>
+        <v>0.09363412200123378</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.407768864532628</v>
+        <v>0.6861760686028617</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2328651087269193</v>
+        <v>0.2888101131070613</v>
       </c>
       <c r="H21">
-        <v>0.1824361335686149</v>
+        <v>0.4559113693373789</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.581474095547946</v>
+        <v>0.4867567462544287</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4967152795325092</v>
+        <v>1.031831554725038</v>
       </c>
       <c r="O21">
-        <v>0.8270409845716387</v>
+        <v>1.414501828099588</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.650494787217553</v>
+        <v>0.5173648803925062</v>
       </c>
       <c r="C22">
-        <v>0.2098214419457207</v>
+        <v>0.09715837528710836</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.608894317980401</v>
+        <v>0.7361236047758553</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2446087635485696</v>
+        <v>0.2888347674678045</v>
       </c>
       <c r="H22">
-        <v>0.183369206210493</v>
+        <v>0.4534795139850729</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.695477599372566</v>
+        <v>0.5213680541465919</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4807571524127852</v>
+        <v>1.024767885221159</v>
       </c>
       <c r="O22">
-        <v>0.8541542341811947</v>
+        <v>1.409622597972728</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.589802449735942</v>
+        <v>0.4992912878941524</v>
       </c>
       <c r="C23">
-        <v>0.2037988482445598</v>
+        <v>0.09527875713354206</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.501067086728654</v>
+        <v>0.7094543810183609</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2382420922799824</v>
+        <v>0.2888002151234303</v>
       </c>
       <c r="H23">
-        <v>0.1828184848294967</v>
+        <v>0.454759020773551</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.634581446372408</v>
+        <v>0.5029035387385932</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4891830905698882</v>
+        <v>1.028505099190646</v>
       </c>
       <c r="O23">
-        <v>0.8393639140097946</v>
+        <v>1.412143411722326</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.36107516199931</v>
+        <v>0.4307598465364322</v>
       </c>
       <c r="C24">
-        <v>0.1810879726439651</v>
+        <v>0.08813085802074738</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.102527510284318</v>
+        <v>0.6086886273486272</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2162021073464544</v>
+        <v>0.2891381129345731</v>
       </c>
       <c r="H24">
-        <v>0.1818489147054549</v>
+        <v>0.4600094012854683</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.404946556609332</v>
+        <v>0.4327952317183019</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.523047619965304</v>
+        <v>1.043379711511768</v>
       </c>
       <c r="O24">
-        <v>0.7900678941523722</v>
+        <v>1.423517997725213</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116151197246154</v>
+        <v>0.3566850909993491</v>
       </c>
       <c r="C25">
-        <v>0.1567349940326608</v>
+        <v>0.08036061027620178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.689189778487787</v>
+        <v>0.5004566615563419</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1962667092509562</v>
+        <v>0.2904961555504002</v>
       </c>
       <c r="H25">
-        <v>0.1829371058558849</v>
+        <v>0.4665354722069779</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.158756668140967</v>
+        <v>0.3568136602469849</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5634392604420384</v>
+        <v>1.060963391261154</v>
       </c>
       <c r="O25">
-        <v>0.7494739452930759</v>
+        <v>1.439671594184304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3020198183113507</v>
+        <v>0.9367524061129586</v>
       </c>
       <c r="C2">
-        <v>0.07458860217634822</v>
+        <v>0.1388661643492384</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4210905462599328</v>
+        <v>1.395126470509695</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2923424507497643</v>
+        <v>0.1843523114778023</v>
       </c>
       <c r="H2">
-        <v>0.4720819551906956</v>
+        <v>0.1853466840580325</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3005669203260766</v>
+        <v>0.9781849477873266</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.075236111150243</v>
+        <v>0.5962249340399985</v>
       </c>
       <c r="O2">
-        <v>1.454887358339022</v>
+        <v>0.7287886663241636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2648994802753464</v>
+        <v>0.8154882095255971</v>
       </c>
       <c r="C3">
-        <v>0.07064570305399798</v>
+        <v>0.1267684449177153</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3674713771598022</v>
+        <v>1.20053665841229</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2941176245743691</v>
+        <v>0.177760434036756</v>
       </c>
       <c r="H3">
-        <v>0.4763030475964385</v>
+        <v>0.1878807694790439</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2622639032088614</v>
+        <v>0.8559799239428685</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085737194912184</v>
+        <v>0.6202173339516186</v>
       </c>
       <c r="O3">
-        <v>1.467262182153661</v>
+        <v>0.7197848630752333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2420733955499941</v>
+        <v>0.7411079222804347</v>
       </c>
       <c r="C4">
-        <v>0.06820961911171253</v>
+        <v>0.1193387340712775</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.334621184651084</v>
+        <v>1.082874476777704</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2954647070561549</v>
+        <v>0.1743710185999561</v>
       </c>
       <c r="H4">
-        <v>0.4791227071872299</v>
+        <v>0.1898501163590609</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2386568866140664</v>
+        <v>0.7809517007226106</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.092593874484752</v>
+        <v>0.6357844790132319</v>
       </c>
       <c r="O4">
-        <v>1.475874947344238</v>
+        <v>0.7165095030849358</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2327635102925001</v>
+        <v>0.7108060724979168</v>
       </c>
       <c r="C5">
-        <v>0.06721314575372617</v>
+        <v>0.1163096585680421</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3212512965448724</v>
+        <v>1.035315021192403</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2960781256388927</v>
+        <v>0.1731450405737576</v>
       </c>
       <c r="H5">
-        <v>0.4803290330666599</v>
+        <v>0.1907522450412245</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2290149875692862</v>
+        <v>0.7503684209703181</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.095490912002852</v>
+        <v>0.6423328139107518</v>
       </c>
       <c r="O5">
-        <v>1.479639420149155</v>
+        <v>0.7157104870139932</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2312171379869028</v>
+        <v>0.7057747063488478</v>
       </c>
       <c r="C6">
-        <v>0.06704745727346051</v>
+        <v>0.1158065704615154</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3190322149028759</v>
+        <v>1.027439400508314</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2961838718936534</v>
+        <v>0.1729505551500168</v>
       </c>
       <c r="H6">
-        <v>0.4805328024517053</v>
+        <v>0.1909079358652335</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2274126522766693</v>
+        <v>0.745289281684606</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.095978178266808</v>
+        <v>0.6434323601610075</v>
       </c>
       <c r="O6">
-        <v>1.480279878990203</v>
+        <v>0.7156092976186557</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2419478712071452</v>
+        <v>0.7406992390066307</v>
       </c>
       <c r="C7">
-        <v>0.06819619543107081</v>
+        <v>0.1192978898507135</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3344408072489102</v>
+        <v>1.082231585211844</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2954727190346063</v>
+        <v>0.1743538692005302</v>
       </c>
       <c r="H7">
-        <v>0.4791387441672654</v>
+        <v>0.189861885068062</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2385269404116173</v>
+        <v>0.780539292021075</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.092632528308428</v>
+        <v>0.6358719708663578</v>
       </c>
       <c r="O7">
-        <v>1.475924685628939</v>
+        <v>0.7164965976775903</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2892280753377179</v>
+        <v>0.8949180848819651</v>
       </c>
       <c r="C8">
-        <v>0.07323226195701693</v>
+        <v>0.1346945904093104</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4025868613115904</v>
+        <v>1.32761227335034</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2929010550697839</v>
+        <v>0.1819365253262433</v>
       </c>
       <c r="H8">
-        <v>0.4734900807079399</v>
+        <v>0.1861319410791609</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2873787509428212</v>
+        <v>0.9360409736285646</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.078772030225267</v>
+        <v>0.6043206363509839</v>
       </c>
       <c r="O8">
-        <v>1.458943367936385</v>
+        <v>0.7251974624890494</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.38165714854415</v>
+        <v>1.198470458132221</v>
       </c>
       <c r="C9">
-        <v>0.08298599006671736</v>
+        <v>0.1649248417598415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5368597020203794</v>
+        <v>1.826581327187171</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2899066807842132</v>
+        <v>0.2025186064998934</v>
       </c>
       <c r="H9">
-        <v>0.4642219526549525</v>
+        <v>0.1823063170781012</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.382455577142224</v>
+        <v>1.241540259619342</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.054834485054933</v>
+        <v>0.5493424785970191</v>
       </c>
       <c r="O9">
-        <v>1.43371295806125</v>
+        <v>0.7616160218918253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4493732371662134</v>
+        <v>1.422985294139266</v>
       </c>
       <c r="C10">
-        <v>0.09007573695409121</v>
+        <v>0.1872376911862403</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6359993083288771</v>
+        <v>2.209193603558248</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2889678287747941</v>
+        <v>0.2218551538773141</v>
       </c>
       <c r="H10">
-        <v>0.4585164034533804</v>
+        <v>0.1819327017757857</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4518528070528873</v>
+        <v>1.467125796917884</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.039221373861032</v>
+        <v>0.5135381074750285</v>
       </c>
       <c r="O10">
-        <v>1.420124107684956</v>
+        <v>0.8023766265104655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4801343672444318</v>
+        <v>1.525645062509426</v>
       </c>
       <c r="C11">
-        <v>0.09328410422605771</v>
+        <v>0.1974309187990428</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6812288779715914</v>
+        <v>2.38803777032831</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2888172143815098</v>
+        <v>0.2317441859516833</v>
       </c>
       <c r="H11">
-        <v>0.4561607065184035</v>
+        <v>0.1823668620350105</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.483321486305158</v>
+        <v>1.570192642602649</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.032546547403513</v>
+        <v>0.4983378526633544</v>
       </c>
       <c r="O11">
-        <v>1.415022781413981</v>
+        <v>0.8244932793240309</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4917761771157245</v>
+        <v>1.564613048038808</v>
       </c>
       <c r="C12">
-        <v>0.09449656842126331</v>
+        <v>0.2012988738289891</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6983765020532786</v>
+        <v>2.456573262287876</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2888001466343297</v>
+        <v>0.2356621910139012</v>
       </c>
       <c r="H12">
-        <v>0.4553031694837983</v>
+        <v>0.182624981581661</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4952230083470681</v>
+        <v>1.609303197522678</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.030080432311443</v>
+        <v>0.4927466166577901</v>
       </c>
       <c r="O12">
-        <v>1.413246886941948</v>
+        <v>0.8334308852066528</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4892692144438229</v>
+        <v>1.556216169890149</v>
       </c>
       <c r="C13">
-        <v>0.09423555358375779</v>
+        <v>0.2004654534642754</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.69468253493622</v>
+        <v>2.44177475087919</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2888020416061252</v>
+        <v>0.2348104022391695</v>
       </c>
       <c r="H13">
-        <v>0.4554863198591832</v>
+        <v>0.1825651079256332</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4926604775686485</v>
+        <v>1.600876130093184</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.030608819193787</v>
+        <v>0.4939433207351627</v>
       </c>
       <c r="O13">
-        <v>1.413622417069348</v>
+        <v>0.8314801774797047</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4810922845805976</v>
+        <v>1.528849014935759</v>
       </c>
       <c r="C14">
-        <v>0.09338390432721155</v>
+        <v>0.1977489662769756</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6826392110428685</v>
+        <v>2.393659222220478</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2888150080129037</v>
+        <v>0.2320629533703098</v>
       </c>
       <c r="H14">
-        <v>0.4560894645203817</v>
+        <v>0.1823861783126688</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4843009350533123</v>
+        <v>1.573408556612776</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.032342426129922</v>
+        <v>0.4978745057269833</v>
       </c>
       <c r="O14">
-        <v>1.414873550716933</v>
+        <v>0.82521701547806</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4760827821905309</v>
+        <v>1.512098485697805</v>
       </c>
       <c r="C15">
-        <v>0.0928619204949257</v>
+        <v>0.1960861389056561</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6752649957528263</v>
+        <v>2.364296558416441</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2888281613844299</v>
+        <v>0.2304031244231695</v>
       </c>
       <c r="H15">
-        <v>0.456463403815782</v>
+        <v>0.1822889957077436</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4791785066468606</v>
+        <v>1.556595008692256</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.033412319200607</v>
+        <v>0.5003041880008752</v>
       </c>
       <c r="O15">
-        <v>1.415660220144275</v>
+        <v>0.8214554129572775</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4473620081505487</v>
+        <v>1.416288273267696</v>
       </c>
       <c r="C16">
-        <v>0.08986571954069689</v>
+        <v>0.1865725557642151</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6330461949412012</v>
+        <v>2.197612261257376</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2889832530961129</v>
+        <v>0.2212322174752046</v>
       </c>
       <c r="H16">
-        <v>0.4586751817326018</v>
+        <v>0.1819170567455259</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4497941872724311</v>
+        <v>1.460400554581696</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.039666194965633</v>
+        <v>0.5145540655172454</v>
       </c>
       <c r="O16">
-        <v>1.4204792743582</v>
+        <v>0.8010072330163069</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4297312781010305</v>
+        <v>1.357658503388109</v>
       </c>
       <c r="C17">
-        <v>0.08802330321405805</v>
+        <v>0.1807485235149215</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6071807416197856</v>
+        <v>2.096666741873705</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2891493578941819</v>
+        <v>0.2158970827480786</v>
       </c>
       <c r="H17">
-        <v>0.4600934743442266</v>
+        <v>0.181848305520603</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4317417444610214</v>
+        <v>1.401514499197987</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.043612277485799</v>
+        <v>0.5235801972948977</v>
       </c>
       <c r="O17">
-        <v>1.423712670789712</v>
+        <v>0.7894116970069689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4195865091536461</v>
+        <v>1.323984681105856</v>
       </c>
       <c r="C18">
-        <v>0.08696201689068062</v>
+        <v>0.1774026211834467</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5923158123999315</v>
+        <v>2.039048515627215</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2892709074676603</v>
+        <v>0.2129302673866036</v>
       </c>
       <c r="H18">
-        <v>0.4609318065037868</v>
+        <v>0.1818651826287905</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4213490322251516</v>
+        <v>1.367685740118077</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.045922212571988</v>
+        <v>0.5288735967134812</v>
       </c>
       <c r="O18">
-        <v>1.425674087607234</v>
+        <v>0.783075562072213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4161509874703881</v>
+        <v>1.312591129343446</v>
       </c>
       <c r="C19">
-        <v>0.08660241452423634</v>
+        <v>0.1762703785390016</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5872848546218989</v>
+        <v>2.019612556820036</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2893165229945325</v>
+        <v>0.2119427720684683</v>
       </c>
       <c r="H19">
-        <v>0.4612195263992405</v>
+        <v>0.1818803879615984</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4178286361200776</v>
+        <v>1.356238440004347</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.04671123039946</v>
+        <v>0.5306830895094947</v>
       </c>
       <c r="O19">
-        <v>1.426355632779902</v>
+        <v>0.7809860892443794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4316085213986014</v>
+        <v>1.36389460629573</v>
       </c>
       <c r="C20">
-        <v>0.08821959524419754</v>
+        <v>0.1813680827506232</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6099328909520949</v>
+        <v>2.107365879097927</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.289128982244975</v>
+        <v>0.2164543672843706</v>
       </c>
       <c r="H20">
-        <v>0.459940158754506</v>
+        <v>0.1818497370912269</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4336644371180967</v>
+        <v>1.407778664070975</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.043188044256375</v>
+        <v>0.5226087544472264</v>
       </c>
       <c r="O20">
-        <v>1.423357945779102</v>
+        <v>0.7906112266966403</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4834942349392577</v>
+        <v>1.536884743914499</v>
       </c>
       <c r="C21">
-        <v>0.09363412200123378</v>
+        <v>0.1985466317399727</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6861760686028617</v>
+        <v>2.407768864532656</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2888101131070613</v>
+        <v>0.2328651087268554</v>
       </c>
       <c r="H21">
-        <v>0.4559113693373789</v>
+        <v>0.1824361335685083</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4867567462544287</v>
+        <v>1.581474095547861</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.031831554725038</v>
+        <v>0.4967152795324523</v>
       </c>
       <c r="O21">
-        <v>1.414501828099588</v>
+        <v>0.827040984571596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5173648803925062</v>
+        <v>1.650494787217525</v>
       </c>
       <c r="C22">
-        <v>0.09715837528710836</v>
+        <v>0.2098214419457918</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7361236047758553</v>
+        <v>2.608894317980429</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2888347674678045</v>
+        <v>0.2446087635485767</v>
       </c>
       <c r="H22">
-        <v>0.4534795139850729</v>
+        <v>0.183369206210493</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5213680541465919</v>
+        <v>1.695477599372595</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.024767885221159</v>
+        <v>0.4807571524127852</v>
       </c>
       <c r="O22">
-        <v>1.409622597972728</v>
+        <v>0.8541542341811237</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4992912878941524</v>
+        <v>1.589802449735913</v>
       </c>
       <c r="C23">
-        <v>0.09527875713354206</v>
+        <v>0.2037988482445883</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7094543810183609</v>
+        <v>2.501067086728668</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2888002151234303</v>
+        <v>0.2382420922799255</v>
       </c>
       <c r="H23">
-        <v>0.454759020773551</v>
+        <v>0.1828184848294967</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5029035387385932</v>
+        <v>1.634581446372465</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.028505099190646</v>
+        <v>0.4891830905698811</v>
       </c>
       <c r="O23">
-        <v>1.412143411722326</v>
+        <v>0.8393639140098514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4307598465364322</v>
+        <v>1.361075161999338</v>
       </c>
       <c r="C24">
-        <v>0.08813085802074738</v>
+        <v>0.1810879726439794</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6086886273486272</v>
+        <v>2.102527510284347</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2891381129345731</v>
+        <v>0.2162021073464757</v>
       </c>
       <c r="H24">
-        <v>0.4600094012854683</v>
+        <v>0.1818489147054478</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4327952317183019</v>
+        <v>1.404946556609218</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.043379711511768</v>
+        <v>0.5230476199652543</v>
       </c>
       <c r="O24">
-        <v>1.423517997725213</v>
+        <v>0.7900678941523864</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3566850909993491</v>
+        <v>1.116151197246381</v>
       </c>
       <c r="C25">
-        <v>0.08036061027620178</v>
+        <v>0.1567349940328455</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5004566615563419</v>
+        <v>1.689189778487858</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2904961555504002</v>
+        <v>0.1962667092508994</v>
       </c>
       <c r="H25">
-        <v>0.4665354722069779</v>
+        <v>0.1829371058560056</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3568136602469849</v>
+        <v>1.15875666814091</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.060963391261154</v>
+        <v>0.5634392604420313</v>
       </c>
       <c r="O25">
-        <v>1.439671594184304</v>
+        <v>0.7494739452930048</v>
       </c>
     </row>
   </sheetData>
